--- a/Datos/Anuario2024/031001_AparcamientosPublicos.xlsx
+++ b/Datos/Anuario2024/031001_AparcamientosPublicos.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9285" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9285"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="0" sheetId="117" r:id="rId1"/>
+    <sheet name="1" sheetId="124" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
@@ -76,74 +82,260 @@
     <definedName name="p">'[2]4.27'!$A$1:$G$22</definedName>
     <definedName name="u">'[2]4.17'!$A$1:$I$8</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId131" roundtripDataSignature="AMtx7mjoholsyV4wm7X8410XmcGaQJqvwA=="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="59">
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Situación</t>
+  </si>
+  <si>
+    <t>Plazas</t>
+  </si>
+  <si>
+    <t>Residentes</t>
+  </si>
+  <si>
+    <t>Rotación</t>
+  </si>
+  <si>
+    <t>Mixto</t>
+  </si>
+  <si>
+    <t>Bioparc</t>
+  </si>
+  <si>
+    <t>C. Chiva - Av. Tres Forques</t>
+  </si>
+  <si>
+    <t>C. Explorador Andrés - Actriz Encarna Máñez</t>
+  </si>
+  <si>
+    <t>Av. Primado Reig - Av. Cataluña (plaza Nelson Mandela)</t>
+  </si>
+  <si>
+    <t>Palacio de Congresos</t>
+  </si>
+  <si>
+    <t>C. Chile - Av. de Aragón</t>
+  </si>
+  <si>
+    <t>C. Santa María Micaela - C. Juan Llorens</t>
+  </si>
+  <si>
+    <t>Mercado Colón</t>
+  </si>
+  <si>
+    <t>C. Profesor Dr. Severo Ochoa</t>
+  </si>
+  <si>
+    <t>Centro Histórico - Mercado Central</t>
+  </si>
+  <si>
+    <t>C. Pintor Navarro Llorens (próx. a C. Albacete)</t>
+  </si>
+  <si>
+    <t>Hospital - Vinatea</t>
+  </si>
+  <si>
+    <t>Paseo Neptuno - C. Eugenia Viñes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C. Dr. Vicente Zaragozá </t>
+  </si>
+  <si>
+    <t>Av. Tres Cruces (frente Hospital General)</t>
+  </si>
+  <si>
+    <t>Pl. de Roma</t>
+  </si>
+  <si>
+    <t>C. Conde Altea - C. Salamanca - Pl. Cánovas</t>
+  </si>
+  <si>
+    <t>C. Esteban Dolz del Castellar</t>
+  </si>
+  <si>
+    <t>C. Albacete - C. Marvá</t>
+  </si>
+  <si>
+    <t>Plaza Escultor Alfonso Gabino</t>
+  </si>
+  <si>
+    <t>C. Dr. J. J. Dómine</t>
+  </si>
+  <si>
+    <t>Av. Amado Granell Mesado (General Urrutia)</t>
+  </si>
+  <si>
+    <t>Pza. Arquitecto Calvo (Paseo Alameda frente Palau de la Música)</t>
+  </si>
+  <si>
+    <t>C. Doctor Gómez Ferrer</t>
+  </si>
+  <si>
+    <t>C. Ingeniero Rafael Janini</t>
+  </si>
+  <si>
+    <t>C. Héroes Virgen de la Cabeza</t>
+  </si>
+  <si>
+    <t>C. Diputado Ricardo Samper</t>
+  </si>
+  <si>
+    <t>Av. Reino de Valencia - C. Maestro Gozalbo</t>
+  </si>
+  <si>
+    <t>Av. Doctor Waksman</t>
+  </si>
+  <si>
+    <t>Marqués de Busianos</t>
+  </si>
+  <si>
+    <t>Angelicot 1-6</t>
+  </si>
+  <si>
+    <t>Pl. Salvador Allende</t>
+  </si>
+  <si>
+    <t>Pl. Badajoz</t>
+  </si>
+  <si>
+    <t>C. Pelayo - C. Ermita - C. Vives Liern</t>
+  </si>
+  <si>
+    <t>Triador 11-16</t>
+  </si>
+  <si>
+    <t>Maldonado 33</t>
+  </si>
+  <si>
+    <t>Fuente: Servicio de Movilidad Sostenible. Ayuntamiento de València. Departamento Técnico de AUMSA (Garajes de Maldonado, Triador, Marqués de Busianos, Plaza Badajoz, Angelicot, Mercado Colón).</t>
+  </si>
+  <si>
+    <t>C. Pintor Navarro Llorens, C. Chile - Av. De Aragón, Av. Dr. Vicente Zaragozá, C. Diputado Ricardo Samper). Rain Forest Valencia S.A. (Parking Bioparc). Parking Palacio Congresos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plaza de la Reina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANICOGRUPO (Mercado Cabañal). Aparcamiento Paseo Neptuno S.A. (Paseo Neptuno - C. Eugenia Viñes). APK Gestión de Aparcamientos S.A. (C. Jerónimo Muñoz - C. Uruguay, C. Chiva - Av. Tres Forques, </t>
+  </si>
+  <si>
+    <t>C. Alberique - C. Héroe Romeu - C. Buen Orden</t>
+  </si>
+  <si>
+    <t>1. Aparcamientos Públicos de concesión municipal en subsuelo público. 2023</t>
+  </si>
+  <si>
+    <t>APARCAMIENTOS DE CONCESIÓN MUNICIPAL EN SUBSUELO PÚBLICO</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Av. N. Reverter, Pl. Porta de la Mar - Pl. Tetuán, Paz, Gral. Tovar</t>
+  </si>
+  <si>
+    <t>Av. Del Oeste - Pza S. Agustín - C. San Vicente</t>
+  </si>
+  <si>
+    <t>Av. Pío XII - C. Godelleta</t>
+  </si>
+  <si>
+    <t>C. Jerónimo Muñoz - C. Uruguay</t>
+  </si>
+  <si>
+    <t>C. Martí Grajales (Mercado Cabañal)</t>
+  </si>
+  <si>
+    <t>C. Padre Urbano - Plaza Profesor Tierno Galván</t>
+  </si>
+  <si>
+    <t>Plaza Barón de Cortés - C. Consulado del Mar (Mercado Ruzafa)</t>
+  </si>
+  <si>
+    <t>Pl. Polo de Bernabé (Calle D. Armando Palacio Valdés)</t>
+  </si>
+  <si>
+    <t>C. Alfons Verdeguer - La Fe</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <color theme="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -185,127 +377,68 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -11993,7 +12126,7 @@
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v> </v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="B4" t="str">
             <v>Immigrants</v>
@@ -15788,8 +15921,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -16696,1089 +16829,872 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="79.7109375" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="79.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="16" t="inlineStr">
-        <is>
-          <t>APARCAMIENTOS DE CONCESIÓN MUNICIPAL EN SUBSUELO PÚBLICO</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja2">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView topLeftCell="A31" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="51.85546875" customWidth="1" min="1" max="1"/>
-    <col width="12.85546875" customWidth="1" min="2" max="5"/>
+    <col min="1" max="1" width="51.85546875" customWidth="1"/>
+    <col min="2" max="5" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="16" t="inlineStr">
-        <is>
-          <t>1. Aparcamientos Públicos de concesión municipal en subsuelo público. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="4" t="n"/>
-      <c r="B2" s="3" t="n"/>
-      <c r="C2" s="10" t="n"/>
-      <c r="D2" s="10" t="n"/>
-      <c r="E2" s="10" t="n"/>
+    <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="5" t="inlineStr">
-        <is>
-          <t>Situación</t>
-        </is>
-      </c>
-      <c r="B3" s="7" t="inlineStr">
-        <is>
-          <t>Plazas</t>
-        </is>
-      </c>
-      <c r="C3" s="7" t="inlineStr">
-        <is>
-          <t>Residentes</t>
-        </is>
-      </c>
-      <c r="D3" s="7" t="inlineStr">
-        <is>
-          <t>Rotación</t>
-        </is>
-      </c>
-      <c r="E3" s="7" t="inlineStr">
-        <is>
-          <t>Mixto</t>
-        </is>
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="8" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" s="9" t="n"/>
-      <c r="C4" s="9" t="n"/>
-      <c r="D4" s="9" t="n"/>
-      <c r="E4" s="9" t="n"/>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="11" t="inlineStr">
-        <is>
-          <t>Av. Del Oeste - Pza S. Agustín - C. San Vicente</t>
-        </is>
-      </c>
-      <c r="B5" s="12" t="n">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="12">
         <v>803</v>
       </c>
-      <c r="C5" s="12" t="n">
+      <c r="C5" s="12">
         <v>145</v>
       </c>
-      <c r="D5" s="12" t="n">
+      <c r="D5" s="12">
         <v>658</v>
       </c>
-      <c r="E5" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E5" s="12" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="13" t="inlineStr">
-        <is>
-          <t>Bioparc</t>
-        </is>
-      </c>
-      <c r="B6" s="14" t="n">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="14">
         <v>790</v>
       </c>
-      <c r="C6" s="14" t="n">
+      <c r="C6" s="14">
         <v>0</v>
       </c>
-      <c r="D6" s="14" t="n">
+      <c r="D6" s="14">
         <v>790</v>
       </c>
-      <c r="E6" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E6" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="11" t="inlineStr">
-        <is>
-          <t>C. Chiva - Av. Tres Forques</t>
-        </is>
-      </c>
-      <c r="B7" s="12" t="n">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="12">
         <v>703</v>
       </c>
-      <c r="C7" s="12" t="n">
+      <c r="C7" s="12">
         <v>703</v>
       </c>
-      <c r="D7" s="12" t="n">
+      <c r="D7" s="12">
         <v>0</v>
       </c>
-      <c r="E7" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E7" s="12" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="13" t="inlineStr">
-        <is>
-          <t>Av. N. Reverter, Pl. Porta de la Mar - Pl. Tetuán, Paz, Gral. Tovar</t>
-        </is>
-      </c>
-      <c r="B8" s="14" t="n">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="14">
         <v>662</v>
       </c>
-      <c r="C8" s="14" t="n">
+      <c r="C8" s="14">
         <v>68</v>
       </c>
-      <c r="D8" s="14" t="n">
+      <c r="D8" s="14">
         <v>594</v>
       </c>
-      <c r="E8" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E8" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="11" t="inlineStr">
-        <is>
-          <t>C. Explorador Andrés - Actriz Encarna Máñez</t>
-        </is>
-      </c>
-      <c r="B9" s="12" t="n">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12">
         <v>617</v>
       </c>
-      <c r="C9" s="12" t="n">
+      <c r="C9" s="12">
         <v>617</v>
       </c>
-      <c r="D9" s="12" t="n">
+      <c r="D9" s="12">
         <v>0</v>
       </c>
-      <c r="E9" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E9" s="12" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="13" t="inlineStr">
-        <is>
-          <t>Av. Primado Reig - Av. Cataluña (plaza Nelson Mandela)</t>
-        </is>
-      </c>
-      <c r="B10" s="14" t="n">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14">
         <v>612</v>
       </c>
-      <c r="C10" s="14" t="n">
+      <c r="C10" s="14">
         <v>321</v>
       </c>
-      <c r="D10" s="14" t="n">
+      <c r="D10" s="14">
         <v>291</v>
       </c>
-      <c r="E10" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E10" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="11" t="inlineStr">
-        <is>
-          <t>Palacio de Congresos</t>
-        </is>
-      </c>
-      <c r="B11" s="12" t="n">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12">
         <v>600</v>
       </c>
-      <c r="C11" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D11" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E11" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="C11" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="13" t="inlineStr">
-        <is>
-          <t>Av. Pío XII - C. Godelleta</t>
-        </is>
-      </c>
-      <c r="B12" s="14" t="n">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="14">
         <v>582</v>
       </c>
-      <c r="C12" s="14" t="n">
+      <c r="C12" s="14">
         <v>442</v>
       </c>
-      <c r="D12" s="14" t="n">
+      <c r="D12" s="14">
         <v>140</v>
       </c>
-      <c r="E12" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E12" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="11" t="inlineStr">
-        <is>
-          <t>C. Chile - Av. de Aragón</t>
-        </is>
-      </c>
-      <c r="B13" s="12" t="n">
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="12">
         <v>531</v>
       </c>
-      <c r="C13" s="12" t="n">
+      <c r="C13" s="12">
         <v>63</v>
       </c>
-      <c r="D13" s="12" t="n">
+      <c r="D13" s="12">
         <v>468</v>
       </c>
-      <c r="E13" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E13" s="12" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="13" t="inlineStr">
-        <is>
-          <t>C. Santa María Micaela - C. Juan Llorens</t>
-        </is>
-      </c>
-      <c r="B14" s="14" t="n">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="14">
         <v>469</v>
       </c>
-      <c r="C14" s="14" t="n">
+      <c r="C14" s="14">
         <v>235</v>
       </c>
-      <c r="D14" s="14" t="n">
+      <c r="D14" s="14">
         <v>234</v>
       </c>
-      <c r="E14" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E14" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="11" t="inlineStr">
-        <is>
-          <t>Mercado Colón</t>
-        </is>
-      </c>
-      <c r="B15" s="12" t="n"/>
-      <c r="C15" s="12" t="n"/>
-      <c r="D15" s="12" t="n"/>
-      <c r="E15" s="12" t="n"/>
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="13" t="inlineStr">
-        <is>
-          <t>C. Profesor Dr. Severo Ochoa</t>
-        </is>
-      </c>
-      <c r="B16" s="14" t="n">
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="14">
         <v>463</v>
       </c>
-      <c r="C16" s="14" t="n">
+      <c r="C16" s="14">
         <v>91</v>
       </c>
-      <c r="D16" s="14" t="n">
+      <c r="D16" s="14">
         <v>372</v>
       </c>
-      <c r="E16" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E16" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="11" t="inlineStr">
-        <is>
-          <t>Centro Histórico - Mercado Central</t>
-        </is>
-      </c>
-      <c r="B17" s="12" t="n">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="12">
         <v>421</v>
       </c>
-      <c r="C17" s="12" t="n">
+      <c r="C17" s="12">
         <v>92</v>
       </c>
-      <c r="D17" s="12" t="n">
+      <c r="D17" s="12">
         <v>329</v>
       </c>
-      <c r="E17" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E17" s="12" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="13" t="inlineStr">
-        <is>
-          <t>C. Pintor Navarro Llorens (próx. a C. Albacete)</t>
-        </is>
-      </c>
-      <c r="B18" s="14" t="n">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="14">
         <v>395</v>
       </c>
-      <c r="C18" s="14" t="n">
+      <c r="C18" s="14">
         <v>54</v>
       </c>
-      <c r="D18" s="14" t="n">
+      <c r="D18" s="14">
         <v>341</v>
       </c>
-      <c r="E18" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E18" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="11" t="inlineStr">
-        <is>
-          <t>C. Jerónimo Muñoz - C. Uruguay</t>
-        </is>
-      </c>
-      <c r="B19" s="12" t="n">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="12">
         <v>380</v>
       </c>
-      <c r="C19" s="12" t="n">
+      <c r="C19" s="12">
         <v>85</v>
       </c>
-      <c r="D19" s="12" t="n">
+      <c r="D19" s="12">
         <v>295</v>
       </c>
-      <c r="E19" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E19" s="12" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="13" t="inlineStr">
-        <is>
-          <t>C. Martí Grajales (Mercado Cabañal)</t>
-        </is>
-      </c>
-      <c r="B20" s="14" t="n">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="14">
         <v>378</v>
       </c>
-      <c r="C20" s="14" t="n">
+      <c r="C20" s="14">
         <v>231</v>
       </c>
-      <c r="D20" s="15" t="n">
+      <c r="D20" s="15">
         <v>147</v>
       </c>
+      <c r="E20" s="15"/>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="11" t="inlineStr">
-        <is>
-          <t>C. Padre Urbano - Plaza Profesor Tierno Galván</t>
-        </is>
-      </c>
-      <c r="B21" s="12" t="n">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="12">
         <v>374</v>
       </c>
-      <c r="C21" s="12" t="n">
+      <c r="C21" s="12">
         <v>262</v>
       </c>
-      <c r="D21" s="12" t="n">
+      <c r="D21" s="12">
         <v>112</v>
       </c>
-      <c r="E21" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E21" s="12" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="13" t="inlineStr">
-        <is>
-          <t>Hospital - Vinatea</t>
-        </is>
-      </c>
-      <c r="B22" s="14" t="n">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="14">
         <v>374</v>
       </c>
-      <c r="C22" s="14" t="n">
+      <c r="C22" s="14">
         <v>114</v>
       </c>
-      <c r="D22" s="14" t="n">
+      <c r="D22" s="14">
         <v>260</v>
       </c>
-      <c r="E22" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E22" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="11" t="inlineStr">
-        <is>
-          <t>Paseo Neptuno - C. Eugenia Viñes</t>
-        </is>
-      </c>
-      <c r="B23" s="12" t="n">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="12">
         <v>373</v>
       </c>
-      <c r="C23" s="12" t="n">
+      <c r="C23" s="12">
         <v>47</v>
       </c>
-      <c r="D23" s="12" t="n">
+      <c r="D23" s="12">
         <v>326</v>
       </c>
-      <c r="E23" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E23" s="12" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C. Dr. Vicente Zaragozá </t>
-        </is>
-      </c>
-      <c r="B24" s="14" t="n">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="14">
         <v>361</v>
       </c>
-      <c r="C24" s="14" t="n">
+      <c r="C24" s="14">
         <v>361</v>
       </c>
-      <c r="D24" s="14" t="n">
+      <c r="D24" s="14">
         <v>0</v>
       </c>
-      <c r="E24" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E24" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="11" t="inlineStr">
-        <is>
-          <t>Plaza Barón de Cortés - C. Consulado del Mar (Mercado Ruzafa)</t>
-        </is>
-      </c>
-      <c r="B25" s="12" t="n">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="12">
         <v>357</v>
       </c>
-      <c r="C25" s="12" t="n">
+      <c r="C25" s="12">
         <v>197</v>
       </c>
-      <c r="D25" s="12" t="n">
+      <c r="D25" s="12">
         <v>160</v>
       </c>
-      <c r="E25" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E25" s="12" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="13" t="inlineStr">
-        <is>
-          <t>Av. Tres Cruces (frente Hospital General)</t>
-        </is>
-      </c>
-      <c r="B26" s="14" t="n">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="14">
         <v>355</v>
       </c>
-      <c r="C26" s="14" t="n">
+      <c r="C26" s="14">
         <v>183</v>
       </c>
-      <c r="D26" s="14" t="n">
+      <c r="D26" s="14">
         <v>172</v>
       </c>
-      <c r="E26" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E26" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plaza de la Reina </t>
-        </is>
-      </c>
-      <c r="B27" s="12" t="n">
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="12">
         <v>300</v>
       </c>
-      <c r="C27" s="12" t="n">
+      <c r="C27" s="12">
         <v>28</v>
       </c>
-      <c r="D27" s="12" t="n">
+      <c r="D27" s="12">
         <v>272</v>
       </c>
-      <c r="E27" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E27" s="12" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="13" t="inlineStr">
-        <is>
-          <t>Pl. de Roma</t>
-        </is>
-      </c>
-      <c r="B28" s="14" t="n">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="14">
         <v>348</v>
       </c>
-      <c r="C28" s="14" t="n">
+      <c r="C28" s="14">
         <v>348</v>
       </c>
-      <c r="D28" s="14" t="n">
+      <c r="D28" s="14">
         <v>0</v>
       </c>
-      <c r="E28" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E28" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="11" t="inlineStr">
-        <is>
-          <t>C. Conde Altea - C. Salamanca - Pl. Cánovas</t>
-        </is>
-      </c>
-      <c r="B29" s="12" t="n">
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="12">
         <v>339</v>
       </c>
-      <c r="C29" s="12" t="n">
+      <c r="C29" s="12">
         <v>140</v>
       </c>
-      <c r="D29" s="12" t="n">
+      <c r="D29" s="12">
         <v>199</v>
       </c>
-      <c r="E29" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E29" s="12" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="13" t="inlineStr">
-        <is>
-          <t>C. Esteban Dolz del Castellar</t>
-        </is>
-      </c>
-      <c r="B30" s="14" t="n">
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="14">
         <v>336</v>
       </c>
-      <c r="C30" s="14" t="n">
+      <c r="C30" s="14">
         <v>336</v>
       </c>
-      <c r="D30" s="14" t="n">
+      <c r="D30" s="14">
         <v>0</v>
       </c>
-      <c r="E30" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E30" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" s="11" t="inlineStr">
-        <is>
-          <t>C. Alberique - C. Héroe Romeu - C. Buen Orden</t>
-        </is>
-      </c>
-      <c r="B31" s="12" t="n">
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="12">
         <v>332</v>
       </c>
-      <c r="C31" s="12" t="n">
+      <c r="C31" s="12">
         <v>184</v>
       </c>
-      <c r="D31" s="12" t="n">
+      <c r="D31" s="12">
         <v>148</v>
       </c>
-      <c r="E31" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E31" s="12" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1">
-      <c r="A32" s="13" t="inlineStr">
-        <is>
-          <t>C. Albacete - C. Marvá</t>
-        </is>
-      </c>
-      <c r="B32" s="14" t="n">
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="14">
         <v>299</v>
       </c>
-      <c r="C32" s="14" t="n">
+      <c r="C32" s="14">
         <v>299</v>
       </c>
-      <c r="D32" s="14" t="n">
+      <c r="D32" s="14">
         <v>0</v>
       </c>
-      <c r="E32" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E32" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1">
-      <c r="A33" s="11" t="inlineStr">
-        <is>
-          <t>Plaza Escultor Alfonso Gabino</t>
-        </is>
-      </c>
-      <c r="B33" s="12" t="n">
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="12">
         <v>294</v>
       </c>
-      <c r="C33" s="12" t="n">
+      <c r="C33" s="12">
         <v>294</v>
       </c>
-      <c r="D33" s="12" t="n">
+      <c r="D33" s="12">
         <v>0</v>
       </c>
-      <c r="E33" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E33" s="12" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1">
-      <c r="A34" s="13" t="inlineStr">
-        <is>
-          <t>C. Dr. J. J. Dómine</t>
-        </is>
-      </c>
-      <c r="B34" s="14" t="n">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="14">
         <v>290</v>
       </c>
-      <c r="C34" s="14" t="n">
+      <c r="C34" s="14">
         <v>240</v>
       </c>
-      <c r="D34" s="14" t="n">
+      <c r="D34" s="14">
         <v>50</v>
       </c>
-      <c r="E34" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E34" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1">
-      <c r="A35" s="11" t="inlineStr">
-        <is>
-          <t>Av. Amado Granell Mesado (General Urrutia)</t>
-        </is>
-      </c>
-      <c r="B35" s="12" t="n">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="12">
         <v>275</v>
       </c>
-      <c r="C35" s="12" t="n">
+      <c r="C35" s="12">
         <v>275</v>
       </c>
-      <c r="D35" s="12" t="n">
+      <c r="D35" s="12">
         <v>0</v>
       </c>
-      <c r="E35" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E35" s="12" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1">
-      <c r="A36" s="13" t="inlineStr">
-        <is>
-          <t>Pza. Arquitecto Calvo (Paseo Alameda frente Palau de la Música)</t>
-        </is>
-      </c>
-      <c r="B36" s="14" t="n">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="14">
         <v>544</v>
       </c>
-      <c r="C36" s="14" t="n">
+      <c r="C36" s="14">
         <v>272</v>
       </c>
-      <c r="D36" s="14" t="n">
+      <c r="D36" s="14">
         <v>272</v>
       </c>
-      <c r="E36" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E36" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="37" ht="15" customHeight="1">
-      <c r="A37" s="11" t="inlineStr">
-        <is>
-          <t>C. Doctor Gómez Ferrer</t>
-        </is>
-      </c>
-      <c r="B37" s="12" t="n">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="12">
         <v>260</v>
       </c>
-      <c r="C37" s="12" t="n">
+      <c r="C37" s="12">
         <v>260</v>
       </c>
-      <c r="D37" s="12" t="n">
+      <c r="D37" s="12">
         <v>0</v>
       </c>
-      <c r="E37" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E37" s="12" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="38" ht="15" customHeight="1">
-      <c r="A38" s="13" t="inlineStr">
-        <is>
-          <t>C. Ingeniero Rafael Janini</t>
-        </is>
-      </c>
-      <c r="B38" s="14" t="n">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="14">
         <v>256</v>
       </c>
-      <c r="C38" s="14" t="n">
+      <c r="C38" s="14">
         <v>256</v>
       </c>
-      <c r="D38" s="14" t="n">
+      <c r="D38" s="14">
         <v>0</v>
       </c>
-      <c r="E38" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E38" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="1">
-      <c r="A39" s="11" t="inlineStr">
-        <is>
-          <t>C. Héroes Virgen de la Cabeza</t>
-        </is>
-      </c>
-      <c r="B39" s="12" t="n">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="12">
         <v>213</v>
       </c>
-      <c r="C39" s="12" t="n">
+      <c r="C39" s="12">
         <v>213</v>
       </c>
-      <c r="D39" s="12" t="n">
+      <c r="D39" s="12">
         <v>0</v>
       </c>
-      <c r="E39" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E39" s="12" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="40" ht="15" customHeight="1">
-      <c r="A40" s="13" t="inlineStr">
-        <is>
-          <t>C. Alfons Verdeguer - La Fe</t>
-        </is>
-      </c>
-      <c r="B40" s="14" t="n">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="14">
         <v>410</v>
       </c>
-      <c r="C40" s="14" t="n">
+      <c r="C40" s="14">
         <v>205</v>
       </c>
-      <c r="D40" s="14" t="n">
+      <c r="D40" s="14">
         <v>205</v>
       </c>
-      <c r="E40" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E40" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="41" ht="15" customHeight="1">
-      <c r="A41" s="11" t="inlineStr">
-        <is>
-          <t>Pl. Polo de Bernabé (Calle D. Armando Palacio Valdés)</t>
-        </is>
-      </c>
-      <c r="B41" s="12" t="n">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="12">
         <v>203</v>
       </c>
-      <c r="C41" s="12" t="n">
+      <c r="C41" s="12">
         <v>203</v>
       </c>
-      <c r="D41" s="12" t="n">
+      <c r="D41" s="12">
         <v>0</v>
       </c>
-      <c r="E41" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E41" s="12" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="42" ht="15" customHeight="1">
-      <c r="A42" s="13" t="inlineStr">
-        <is>
-          <t>C. Diputado Ricardo Samper</t>
-        </is>
-      </c>
-      <c r="B42" s="14" t="n">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="14">
         <v>196</v>
       </c>
-      <c r="C42" s="14" t="n">
+      <c r="C42" s="14">
         <v>196</v>
       </c>
-      <c r="D42" s="14" t="n">
+      <c r="D42" s="14">
         <v>0</v>
       </c>
-      <c r="E42" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E42" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="43" ht="15" customHeight="1">
-      <c r="A43" s="11" t="inlineStr">
-        <is>
-          <t>Av. Reino de Valencia - C. Maestro Gozalbo</t>
-        </is>
-      </c>
-      <c r="B43" s="12" t="n">
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="12">
         <v>192</v>
       </c>
-      <c r="C43" s="12" t="n">
+      <c r="C43" s="12">
         <v>99</v>
       </c>
-      <c r="D43" s="12" t="n">
+      <c r="D43" s="12">
         <v>93</v>
       </c>
-      <c r="E43" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E43" s="12" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="44" ht="15" customHeight="1">
-      <c r="A44" s="13" t="inlineStr">
-        <is>
-          <t>Av. Doctor Waksman</t>
-        </is>
-      </c>
-      <c r="B44" s="14" t="n">
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="14">
         <v>380</v>
       </c>
-      <c r="C44" s="14" t="n">
+      <c r="C44" s="14">
         <v>190</v>
       </c>
-      <c r="D44" s="14" t="n">
+      <c r="D44" s="14">
         <v>190</v>
       </c>
-      <c r="E44" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E44" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="45" ht="15" customHeight="1">
-      <c r="A45" s="11" t="inlineStr">
-        <is>
-          <t>Marqués de Busianos</t>
-        </is>
-      </c>
-      <c r="B45" s="12" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="12" t="n"/>
-      <c r="E45" s="12" t="n"/>
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
     </row>
-    <row r="46" ht="15" customHeight="1">
-      <c r="A46" s="13" t="inlineStr">
-        <is>
-          <t>Angelicot 1-6</t>
-        </is>
-      </c>
-      <c r="B46" s="14" t="n"/>
-      <c r="C46" s="14" t="n"/>
-      <c r="D46" s="14" t="n"/>
-      <c r="E46" s="14" t="n"/>
+    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
     </row>
-    <row r="47" ht="15" customHeight="1">
-      <c r="A47" s="11" t="inlineStr">
-        <is>
-          <t>Pl. Salvador Allende</t>
-        </is>
-      </c>
-      <c r="B47" s="12" t="n">
+    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="12">
         <v>138</v>
       </c>
-      <c r="C47" s="12" t="n">
+      <c r="C47" s="12">
         <v>63</v>
       </c>
-      <c r="D47" s="12" t="n">
+      <c r="D47" s="12">
         <v>75</v>
       </c>
-      <c r="E47" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E47" s="12" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="48" ht="15" customHeight="1">
-      <c r="A48" s="13" t="inlineStr">
-        <is>
-          <t>Pl. Badajoz</t>
-        </is>
-      </c>
-      <c r="B48" s="14" t="n"/>
-      <c r="C48" s="14" t="n"/>
-      <c r="D48" s="14" t="n"/>
-      <c r="E48" s="14" t="n"/>
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
     </row>
-    <row r="49" ht="15" customHeight="1">
-      <c r="A49" s="11" t="inlineStr">
-        <is>
-          <t>C. Pelayo - C. Ermita - C. Vives Liern</t>
-        </is>
-      </c>
-      <c r="B49" s="12" t="n">
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="12">
         <v>109</v>
       </c>
-      <c r="C49" s="12" t="n">
+      <c r="C49" s="12">
         <v>109</v>
       </c>
-      <c r="D49" s="12" t="n">
+      <c r="D49" s="12">
         <v>0</v>
       </c>
-      <c r="E49" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E49" s="12" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="50" ht="15" customHeight="1">
-      <c r="A50" s="13" t="inlineStr">
-        <is>
-          <t>Triador 11-16</t>
-        </is>
-      </c>
-      <c r="B50" s="14" t="n"/>
-      <c r="C50" s="14" t="n"/>
-      <c r="D50" s="14" t="n"/>
-      <c r="E50" s="14" t="n"/>
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
     </row>
-    <row r="51" ht="15" customHeight="1">
-      <c r="A51" s="11" t="inlineStr">
-        <is>
-          <t>Maldonado 33</t>
-        </is>
-      </c>
-      <c r="B51" s="12" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="12" t="n"/>
-      <c r="E51" s="12" t="n"/>
+    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
     </row>
-    <row r="52">
-      <c r="A52" s="6" t="inlineStr">
-        <is>
-          <t>Fuente: Servicio de Movilidad Sostenible. Ayuntamiento de València. Departamento Técnico de AUMSA (Garajes de Maldonado, Triador, Marqués de Busianos, Plaza Badajoz, Angelicot, Mercado Colón).</t>
-        </is>
-      </c>
-      <c r="B52" s="2" t="n"/>
-      <c r="C52" s="2" t="n"/>
-      <c r="D52" s="2" t="n"/>
-      <c r="E52" s="2" t="n"/>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
     </row>
-    <row r="53">
-      <c r="A53" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DANICOGRUPO (Mercado Cabañal). Aparcamiento Paseo Neptuno S.A. (Paseo Neptuno - C. Eugenia Viñes). APK Gestión de Aparcamientos S.A. (C. Jerónimo Muñoz - C. Uruguay, C. Chiva - Av. Tres Forques, </t>
-        </is>
-      </c>
-      <c r="B53" s="2" t="n"/>
-      <c r="C53" s="2" t="n"/>
-      <c r="D53" s="2" t="n"/>
-      <c r="E53" s="2" t="n"/>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
     </row>
-    <row r="54">
-      <c r="A54" s="6" t="inlineStr">
-        <is>
-          <t>C. Pintor Navarro Llorens, C. Chile - Av. De Aragón, Av. Dr. Vicente Zaragozá, C. Diputado Ricardo Samper). Rain Forest Valencia S.A. (Parking Bioparc). Parking Palacio Congresos.</t>
-        </is>
-      </c>
-      <c r="B54" s="2" t="n"/>
-      <c r="C54" s="2" t="n"/>
-      <c r="D54" s="2" t="n"/>
-      <c r="E54" s="2" t="n"/>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D20:E20"/>
   </mergeCells>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>